--- a/database/industries/darou/defara/product/quarterly.xlsx
+++ b/database/industries/darou/defara/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\defara\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A1A88-4706-4F3C-A82D-EA3137B905F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FF7E1-5FE1-4608-A500-79787A8736C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -641,12 +641,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -661,7 +661,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +710,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -759,7 +759,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -811,7 +811,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -850,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -967,7 +967,7 @@
         <v>77151</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>7952</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1275,12 +1275,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -1314,12 +1314,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>179015</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>36</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>264118</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1678,7 +1678,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1693,7 +1693,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1708,7 +1708,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1760,7 +1760,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>15</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>77577</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>21</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>22</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>8043</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>22</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>24</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>25</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>41</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>26</v>
       </c>
@@ -2454,12 +2454,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -2493,12 +2493,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
@@ -2532,7 +2532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>28</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>32</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>33</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>181260</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>34</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>36</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>272450</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2857,7 +2857,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2872,7 +2872,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2887,7 +2887,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>42</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1883109</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>22</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>1805272</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>40</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>24</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>-101506</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>25</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>9469</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>41</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>26</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>27</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>28</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>32</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2749306</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>34</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>6345650</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3615,7 +3615,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3630,7 +3630,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3645,7 +3645,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>43</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3697,7 +3697,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>15</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>20</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>24274063</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>21</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>224452567</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>40</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>24</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>25</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>26</v>
       </c>
@@ -4009,12 +4009,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
@@ -4048,7 +4048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>28</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>29</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>31</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>32</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>33</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>15167748</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>34</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4297,7 +4297,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4312,7 +4312,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4327,7 +4327,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>52</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4379,7 +4379,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>15</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>20</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>-959828</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>21</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>22</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>-1181632</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>40</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>24</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>25</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>26</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>27</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>28</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>31</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>32</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>33</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>-1852900</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>34</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>36</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>-3990505</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5016,7 +5016,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5031,7 +5031,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5046,7 +5046,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>53</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5098,7 +5098,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>15</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>20</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>923281</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>21</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>22</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>623640</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>40</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>24</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>25</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>13324</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>26</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>27</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>28</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>29</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>31</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>32</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>33</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>896406</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>34</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="12" t="s">
         <v>36</v>
       </c>
